--- a/data_input/CR/CRR_April2023.xlsx
+++ b/data_input/CR/CRR_April2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cherdchai\CRR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\630039\Desktop\CRR_SICR\data_input\CR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D366D8-F16B-47E4-ABA8-85E66B0A4257}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A800EAD5-BC23-4F88-8A95-E4859F5D85CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="600" windowWidth="13620" windowHeight="14415" firstSheet="3" activeTab="3" xr2:uid="{3CE3CC6B-1A2D-4FA0-867C-EE180169FB88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="12" xr2:uid="{3CE3CC6B-1A2D-4FA0-867C-EE180169FB88}"/>
   </bookViews>
   <sheets>
     <sheet name="M &amp; L Infrastructure" sheetId="19" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="349">
   <si>
     <t>บุคคล/นิติบุคคลที่ถูกประเมิน</t>
   </si>
@@ -510,9 +510,6 @@
   </si>
   <si>
     <t xml:space="preserve">ระยะเวลาดำเนินการตั้งแต่ 5 ปี ไม่เกิน 7 ปี มีกำรต่อเนื่อง 3 ปีล่าสุด </t>
-  </si>
-  <si>
-    <t>วัตุประสงค์</t>
   </si>
   <si>
     <t>No. of years with
@@ -1380,7 +1377,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{8532E6A2-F8A3-4C00-AE1D-8DCC7F8D8CCD}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{B3D3272A-B957-4B88-BE6E-AE5CF0BBFE0B}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{B02AEE6D-E966-4C87-ABDC-3A86A82F6ACC}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{B02AEE6D-E966-4C87-ABDC-3A86A82F6ACC}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{898B3CEF-3154-43B2-AE62-58D7A7079875}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{7B3DE736-EE73-4AE3-BCC1-03DE1F6C73ED}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{478D0479-31EA-4311-A923-0EBD64B74014}" name="สถานะชั้นหนี้"/>
@@ -1418,7 +1415,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{E100862C-4AB8-40DE-B450-68DB6E98C1BD}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{AF80F883-3D02-466B-B255-2439432DB180}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{84FFCE91-5B6F-40C6-ADAE-0C828CD81679}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{84FFCE91-5B6F-40C6-ADAE-0C828CD81679}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{F38715C8-40A5-4541-B839-DF0D89A57684}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{9FD21875-4705-42B5-B815-6D0442CED130}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{2CA8375E-66B8-4A59-82E2-6199EEEE5F91}" name="สถานะชั้นหนี้"/>
@@ -1456,7 +1453,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{0D7A27F9-CEA4-4C98-9A8F-A4172FEE71FE}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{BFD1DE10-7903-415F-BFDF-CD08DAFB580A}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{01B4C01B-415A-4478-AF3C-BA2D28916D86}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{01B4C01B-415A-4478-AF3C-BA2D28916D86}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{7328C905-B294-4E1B-947E-98D969D015BB}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{7CED7E18-7245-4671-A51C-410A9C3E232A}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{FE3041EF-D804-45ED-9C10-BB7A9BE50366}" name="สถานะชั้นหนี้"/>
@@ -2345,7 +2342,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -2401,7 +2398,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -2454,7 +2451,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -2501,7 +2498,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -2539,7 +2536,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -2556,97 +2553,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2717,8 +2714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D6B51E-319C-4136-AB64-47F7F72E9146}">
   <dimension ref="A1:AX25"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1:AX1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2871,7 +2868,7 @@
         <v>46</v>
       </c>
       <c r="AL2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AM2" t="s">
         <v>48</v>
@@ -2921,7 +2918,7 @@
         <v>47</v>
       </c>
       <c r="AL3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM3" t="s">
         <v>49</v>
@@ -2968,7 +2965,7 @@
         <v>43</v>
       </c>
       <c r="AL4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM4" t="s">
         <v>50</v>
@@ -3009,7 +3006,7 @@
         <v>44</v>
       </c>
       <c r="AL5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AN5" t="s">
         <v>54</v>
@@ -3041,7 +3038,7 @@
         <v>45</v>
       </c>
       <c r="AL6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN6" t="s">
         <v>55</v>
@@ -3052,97 +3049,97 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3208,7 +3205,7 @@
   <dimension ref="A1:BD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3266,7 +3263,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -3302,43 +3299,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -3349,7 +3346,7 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B2" s="7">
         <v>750309763</v>
@@ -3358,7 +3355,7 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
@@ -3367,16 +3364,16 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K2" t="s">
         <v>57</v>
@@ -3391,31 +3388,31 @@
         <v>78</v>
       </c>
       <c r="O2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q2" t="s">
         <v>171</v>
       </c>
-      <c r="Q2" t="s">
-        <v>172</v>
-      </c>
       <c r="R2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -3433,7 +3430,7 @@
         <v>141</v>
       </c>
       <c r="AC2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -3445,13 +3442,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -3466,31 +3463,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -3498,7 +3495,7 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B3">
         <v>750434909</v>
@@ -3507,7 +3504,7 @@
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
@@ -3516,16 +3513,16 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K3" t="s">
         <v>57</v>
@@ -3540,31 +3537,31 @@
         <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X3">
         <v>1.78</v>
@@ -3582,7 +3579,7 @@
         <v>137</v>
       </c>
       <c r="AC3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -3594,13 +3591,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -3615,31 +3612,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -3647,13 +3644,13 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
@@ -3662,13 +3659,13 @@
         <v>46</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" t="s">
         <v>56</v>
@@ -3683,31 +3680,31 @@
         <v>78</v>
       </c>
       <c r="O4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P4" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q4" t="s">
         <v>171</v>
       </c>
-      <c r="Q4" t="s">
-        <v>172</v>
-      </c>
       <c r="R4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X4">
         <v>8.23</v>
@@ -3725,7 +3722,7 @@
         <v>137</v>
       </c>
       <c r="AC4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -3734,13 +3731,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -3755,31 +3752,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -3787,7 +3784,7 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B5">
         <v>480002815</v>
@@ -3796,7 +3793,7 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
@@ -3805,7 +3802,7 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H5" s="5">
         <v>243438</v>
@@ -3814,7 +3811,7 @@
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" t="s">
         <v>59</v>
@@ -3829,31 +3826,31 @@
         <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P5" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q5" t="s">
         <v>171</v>
       </c>
-      <c r="Q5" t="s">
-        <v>172</v>
-      </c>
       <c r="R5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -3871,16 +3868,16 @@
         <v>141</v>
       </c>
       <c r="AC5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -3895,31 +3892,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -3927,7 +3924,7 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B6">
         <v>750820722</v>
@@ -3936,7 +3933,7 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -3945,7 +3942,7 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H6" s="5">
         <v>243347</v>
@@ -3954,7 +3951,7 @@
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K6" t="s">
         <v>56</v>
@@ -3969,31 +3966,31 @@
         <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S6" t="s">
+        <v>184</v>
+      </c>
+      <c r="T6" t="s">
         <v>185</v>
       </c>
-      <c r="T6" t="s">
-        <v>186</v>
-      </c>
       <c r="U6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V6" t="s">
+        <v>197</v>
+      </c>
+      <c r="W6" t="s">
         <v>198</v>
-      </c>
-      <c r="W6" t="s">
-        <v>199</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -4011,40 +4008,40 @@
         <v>137</v>
       </c>
       <c r="AC6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -4052,7 +4049,7 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B7">
         <v>750485878</v>
@@ -4061,7 +4058,7 @@
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E7" t="s">
         <v>43</v>
@@ -4070,16 +4067,16 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I7" t="s">
         <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K7" t="s">
         <v>56</v>
@@ -4094,31 +4091,31 @@
         <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X7">
         <v>32.9</v>
@@ -4136,18 +4133,18 @@
         <v>141</v>
       </c>
       <c r="AC7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B8">
         <v>750478336</v>
@@ -4156,7 +4153,7 @@
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E8" t="s">
         <v>45</v>
@@ -4165,16 +4162,16 @@
         <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I8" t="s">
         <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K8" t="s">
         <v>56</v>
@@ -4189,31 +4186,31 @@
         <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P8" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q8" t="s">
         <v>171</v>
       </c>
-      <c r="Q8" t="s">
-        <v>172</v>
-      </c>
       <c r="R8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S8" t="s">
+        <v>184</v>
+      </c>
+      <c r="T8" t="s">
         <v>185</v>
       </c>
-      <c r="T8" t="s">
-        <v>186</v>
-      </c>
       <c r="U8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V8" t="s">
+        <v>197</v>
+      </c>
+      <c r="W8" t="s">
         <v>198</v>
-      </c>
-      <c r="W8" t="s">
-        <v>199</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -4231,15 +4228,15 @@
         <v>141</v>
       </c>
       <c r="AC8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B9">
         <v>740001748</v>
@@ -4248,7 +4245,7 @@
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E9" t="s">
         <v>45</v>
@@ -4257,7 +4254,7 @@
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H9" s="5">
         <v>243316</v>
@@ -4266,7 +4263,7 @@
         <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K9" t="s">
         <v>56</v>
@@ -4281,31 +4278,31 @@
         <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V9" t="s">
+        <v>197</v>
+      </c>
+      <c r="W9" t="s">
         <v>198</v>
-      </c>
-      <c r="W9" t="s">
-        <v>199</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -4323,15 +4320,15 @@
         <v>141</v>
       </c>
       <c r="AC9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B10">
         <v>750241764</v>
@@ -4340,7 +4337,7 @@
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E10" t="s">
         <v>45</v>
@@ -4349,16 +4346,16 @@
         <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I10" t="s">
         <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K10" t="s">
         <v>57</v>
@@ -4373,31 +4370,31 @@
         <v>76</v>
       </c>
       <c r="O10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q10" t="s">
         <v>72</v>
       </c>
       <c r="R10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X10">
         <v>2.88</v>
@@ -4415,85 +4412,85 @@
         <v>138</v>
       </c>
       <c r="AC10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4574,7 +4571,7 @@
   <dimension ref="A1:BD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC23" sqref="AC23"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4634,7 +4631,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -4670,43 +4667,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -4717,16 +4714,16 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -4735,13 +4732,13 @@
         <v>46</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K2" t="s">
         <v>56</v>
@@ -4756,31 +4753,31 @@
         <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X2">
         <v>1.63</v>
@@ -4798,7 +4795,7 @@
         <v>138</v>
       </c>
       <c r="AC2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -4810,13 +4807,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -4831,31 +4828,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -4863,16 +4860,16 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -4881,16 +4878,16 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I3" t="s">
         <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
         <v>56</v>
@@ -4905,31 +4902,31 @@
         <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V3" t="s">
+        <v>197</v>
+      </c>
+      <c r="W3" t="s">
         <v>198</v>
-      </c>
-      <c r="W3" t="s">
-        <v>199</v>
       </c>
       <c r="X3">
         <v>1.2</v>
@@ -4947,7 +4944,7 @@
         <v>137</v>
       </c>
       <c r="AC3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -4959,13 +4956,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -4980,31 +4977,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -5012,16 +5009,16 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
@@ -5030,16 +5027,16 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" t="s">
         <v>56</v>
@@ -5054,31 +5051,31 @@
         <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T4" t="s">
+        <v>187</v>
+      </c>
+      <c r="U4" t="s">
         <v>188</v>
       </c>
-      <c r="U4" t="s">
-        <v>189</v>
-      </c>
       <c r="V4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X4">
         <v>5.27</v>
@@ -5096,7 +5093,7 @@
         <v>141</v>
       </c>
       <c r="AC4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -5105,13 +5102,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -5126,31 +5123,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -5158,14 +5155,14 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
@@ -5174,7 +5171,7 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H5" s="5">
         <v>243437</v>
@@ -5183,7 +5180,7 @@
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" t="s">
         <v>56</v>
@@ -5198,31 +5195,31 @@
         <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S5" t="s">
+        <v>184</v>
+      </c>
+      <c r="T5" t="s">
         <v>185</v>
       </c>
-      <c r="T5" t="s">
-        <v>186</v>
-      </c>
       <c r="U5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X5">
         <v>0.55000000000000004</v>
@@ -5240,16 +5237,16 @@
         <v>139</v>
       </c>
       <c r="AC5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -5264,31 +5261,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -5296,7 +5293,7 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B6">
         <v>730012589</v>
@@ -5305,7 +5302,7 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -5314,7 +5311,7 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H6" s="5">
         <v>243438</v>
@@ -5323,7 +5320,7 @@
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s">
         <v>57</v>
@@ -5338,31 +5335,31 @@
         <v>75</v>
       </c>
       <c r="O6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X6">
         <v>7.82</v>
@@ -5380,40 +5377,40 @@
         <v>138</v>
       </c>
       <c r="AC6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -5421,16 +5418,16 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -5439,16 +5436,16 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I7" t="s">
         <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K7" t="s">
         <v>57</v>
@@ -5463,31 +5460,31 @@
         <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X7">
         <v>1.75</v>
@@ -5505,18 +5502,18 @@
         <v>139</v>
       </c>
       <c r="AC7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B8">
         <v>750463296</v>
@@ -5525,7 +5522,7 @@
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E8" t="s">
         <v>45</v>
@@ -5534,16 +5531,16 @@
         <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I8" t="s">
         <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K8" t="s">
         <v>57</v>
@@ -5558,31 +5555,31 @@
         <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V8" t="s">
+        <v>197</v>
+      </c>
+      <c r="W8" t="s">
         <v>198</v>
-      </c>
-      <c r="W8" t="s">
-        <v>199</v>
       </c>
       <c r="X8">
         <v>2.86</v>
@@ -5600,15 +5597,15 @@
         <v>139</v>
       </c>
       <c r="AC8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B9">
         <v>310002846</v>
@@ -5617,7 +5614,7 @@
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E9" t="s">
         <v>45</v>
@@ -5632,7 +5629,7 @@
         <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K9" t="s">
         <v>57</v>
@@ -5647,31 +5644,31 @@
         <v>75</v>
       </c>
       <c r="O9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V9" t="s">
+        <v>197</v>
+      </c>
+      <c r="W9" t="s">
         <v>198</v>
-      </c>
-      <c r="W9" t="s">
-        <v>199</v>
       </c>
       <c r="X9">
         <v>3.9</v>
@@ -5689,15 +5686,15 @@
         <v>137</v>
       </c>
       <c r="AC9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B10" s="8">
         <v>730019503</v>
@@ -5706,7 +5703,7 @@
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E10" t="s">
         <v>45</v>
@@ -5721,7 +5718,7 @@
         <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K10" t="s">
         <v>56</v>
@@ -5736,31 +5733,31 @@
         <v>76</v>
       </c>
       <c r="O10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V10" t="s">
+        <v>197</v>
+      </c>
+      <c r="W10" t="s">
         <v>198</v>
-      </c>
-      <c r="W10" t="s">
-        <v>199</v>
       </c>
       <c r="X10">
         <v>5.62</v>
@@ -5778,21 +5775,21 @@
         <v>140</v>
       </c>
       <c r="AC10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
@@ -5801,13 +5798,13 @@
         <v>46</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I11" t="s">
         <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K11" t="s">
         <v>57</v>
@@ -5822,31 +5819,31 @@
         <v>78</v>
       </c>
       <c r="O11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P11" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q11" t="s">
         <v>171</v>
       </c>
-      <c r="Q11" t="s">
-        <v>172</v>
-      </c>
       <c r="R11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V11" t="s">
+        <v>197</v>
+      </c>
+      <c r="W11" t="s">
         <v>198</v>
-      </c>
-      <c r="W11" t="s">
-        <v>199</v>
       </c>
       <c r="X11">
         <v>5.86</v>
@@ -5864,15 +5861,15 @@
         <v>138</v>
       </c>
       <c r="AC11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B12">
         <v>750097991</v>
@@ -5881,7 +5878,7 @@
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E12" t="s">
         <v>44</v>
@@ -5890,16 +5887,16 @@
         <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I12" t="s">
         <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K12" t="s">
         <v>57</v>
@@ -5914,31 +5911,31 @@
         <v>77</v>
       </c>
       <c r="O12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X12">
         <v>1.73</v>
@@ -5956,24 +5953,24 @@
         <v>140</v>
       </c>
       <c r="AC12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B13" t="s">
         <v>286</v>
-      </c>
-      <c r="B13" t="s">
-        <v>287</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E13" t="s">
         <v>45</v>
@@ -5982,7 +5979,7 @@
         <v>46</v>
       </c>
       <c r="G13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H13" s="5">
         <v>243377</v>
@@ -5991,7 +5988,7 @@
         <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
         <v>56</v>
@@ -6006,31 +6003,31 @@
         <v>76</v>
       </c>
       <c r="O13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V13" t="s">
+        <v>197</v>
+      </c>
+      <c r="W13" t="s">
         <v>198</v>
-      </c>
-      <c r="W13" t="s">
-        <v>199</v>
       </c>
       <c r="X13">
         <v>6.17</v>
@@ -6048,21 +6045,21 @@
         <v>137</v>
       </c>
       <c r="AC13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E14" t="s">
         <v>44</v>
@@ -6077,7 +6074,7 @@
         <v>49</v>
       </c>
       <c r="J14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
         <v>57</v>
@@ -6092,31 +6089,31 @@
         <v>75</v>
       </c>
       <c r="O14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X14">
         <v>5.93</v>
@@ -6134,15 +6131,15 @@
         <v>141</v>
       </c>
       <c r="AC14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B15">
         <v>750383321</v>
@@ -6151,7 +6148,7 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E15" t="s">
         <v>44</v>
@@ -6160,16 +6157,16 @@
         <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I15" t="s">
         <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
         <v>57</v>
@@ -6184,31 +6181,31 @@
         <v>76</v>
       </c>
       <c r="O15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V15" t="s">
+        <v>197</v>
+      </c>
+      <c r="W15" t="s">
         <v>198</v>
-      </c>
-      <c r="W15" t="s">
-        <v>199</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -6226,24 +6223,24 @@
         <v>139</v>
       </c>
       <c r="AC15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>311</v>
+      </c>
+      <c r="B16" t="s">
         <v>312</v>
-      </c>
-      <c r="B16" t="s">
-        <v>313</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
@@ -6252,16 +6249,16 @@
         <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I16" t="s">
         <v>49</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K16" t="s">
         <v>57</v>
@@ -6276,31 +6273,31 @@
         <v>76</v>
       </c>
       <c r="O16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V16" t="s">
+        <v>197</v>
+      </c>
+      <c r="W16" t="s">
         <v>198</v>
-      </c>
-      <c r="W16" t="s">
-        <v>199</v>
       </c>
       <c r="X16">
         <v>1.47</v>
@@ -6318,15 +6315,15 @@
         <v>137</v>
       </c>
       <c r="AC16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B17">
         <v>750296825</v>
@@ -6335,7 +6332,7 @@
         <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E17" t="s">
         <v>45</v>
@@ -6344,16 +6341,16 @@
         <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I17" t="s">
         <v>49</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
         <v>57</v>
@@ -6368,31 +6365,31 @@
         <v>75</v>
       </c>
       <c r="O17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X17">
         <v>2.23</v>
@@ -6410,21 +6407,21 @@
         <v>141</v>
       </c>
       <c r="AC17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E18" t="s">
         <v>45</v>
@@ -6433,13 +6430,13 @@
         <v>46</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I18" t="s">
         <v>49</v>
       </c>
       <c r="J18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K18" t="s">
         <v>56</v>
@@ -6454,31 +6451,31 @@
         <v>76</v>
       </c>
       <c r="O18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V18" t="s">
+        <v>197</v>
+      </c>
+      <c r="W18" t="s">
         <v>198</v>
-      </c>
-      <c r="W18" t="s">
-        <v>199</v>
       </c>
       <c r="X18">
         <v>3</v>
@@ -6496,15 +6493,15 @@
         <v>140</v>
       </c>
       <c r="AC18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B19">
         <v>750217928</v>
@@ -6513,7 +6510,7 @@
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E19" t="s">
         <v>45</v>
@@ -6522,16 +6519,16 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I19" t="s">
         <v>49</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
         <v>56</v>
@@ -6546,31 +6543,31 @@
         <v>76</v>
       </c>
       <c r="O19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V19" t="s">
+        <v>197</v>
+      </c>
+      <c r="W19" t="s">
         <v>198</v>
-      </c>
-      <c r="W19" t="s">
-        <v>199</v>
       </c>
       <c r="X19">
         <v>1.89</v>
@@ -6588,21 +6585,21 @@
         <v>141</v>
       </c>
       <c r="AC19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E20" t="s">
         <v>45</v>
@@ -6611,13 +6608,13 @@
         <v>46</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I20" t="s">
         <v>48</v>
       </c>
       <c r="J20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K20" t="s">
         <v>57</v>
@@ -6632,31 +6629,31 @@
         <v>76</v>
       </c>
       <c r="O20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V20" t="s">
+        <v>197</v>
+      </c>
+      <c r="W20" t="s">
         <v>198</v>
-      </c>
-      <c r="W20" t="s">
-        <v>199</v>
       </c>
       <c r="X20">
         <v>2.5099999999999998</v>
@@ -6674,24 +6671,24 @@
         <v>137</v>
       </c>
       <c r="AC20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>320</v>
+      </c>
+      <c r="B21" t="s">
         <v>321</v>
-      </c>
-      <c r="B21" t="s">
-        <v>322</v>
       </c>
       <c r="C21" t="s">
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E21" t="s">
         <v>45</v>
@@ -6700,7 +6697,7 @@
         <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H21" s="5">
         <v>243591</v>
@@ -6709,7 +6706,7 @@
         <v>49</v>
       </c>
       <c r="J21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K21" t="s">
         <v>57</v>
@@ -6724,31 +6721,31 @@
         <v>76</v>
       </c>
       <c r="O21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X21">
         <v>8.7100000000000009</v>
@@ -6766,21 +6763,21 @@
         <v>140</v>
       </c>
       <c r="AC21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E22" t="s">
         <v>43</v>
@@ -6789,13 +6786,13 @@
         <v>46</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I22" t="s">
         <v>49</v>
       </c>
       <c r="J22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K22" t="s">
         <v>58</v>
@@ -6810,31 +6807,31 @@
         <v>76</v>
       </c>
       <c r="O22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V22" t="s">
+        <v>197</v>
+      </c>
+      <c r="W22" t="s">
         <v>198</v>
-      </c>
-      <c r="W22" t="s">
-        <v>199</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -6852,15 +6849,15 @@
         <v>138</v>
       </c>
       <c r="AC22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B23">
         <v>610006931</v>
@@ -6869,7 +6866,7 @@
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E23" t="s">
         <v>45</v>
@@ -6878,13 +6875,13 @@
         <v>46</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I23" t="s">
         <v>49</v>
       </c>
       <c r="J23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K23" t="s">
         <v>57</v>
@@ -6899,31 +6896,31 @@
         <v>75</v>
       </c>
       <c r="O23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R23" t="s">
+        <v>179</v>
+      </c>
+      <c r="S23" t="s">
         <v>180</v>
       </c>
-      <c r="S23" t="s">
-        <v>181</v>
-      </c>
       <c r="T23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X23">
         <v>3.98</v>
@@ -6941,22 +6938,22 @@
         <v>140</v>
       </c>
       <c r="AC23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="H24" s="5"/>
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="H25" s="5"/>
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
@@ -7040,8 +7037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092F6DBC-97BA-4B0E-8A07-45C48EA2E8C7}">
   <dimension ref="A1:BD25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7100,7 +7097,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -7136,43 +7133,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -7183,13 +7180,13 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
@@ -7198,13 +7195,13 @@
         <v>46</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K2" t="s">
         <v>57</v>
@@ -7219,31 +7216,31 @@
         <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X2">
         <v>2.58</v>
@@ -7261,7 +7258,7 @@
         <v>137</v>
       </c>
       <c r="AC2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -7273,13 +7270,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -7294,31 +7291,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -7326,7 +7323,7 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B3" s="8">
         <v>750630246</v>
@@ -7335,7 +7332,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
@@ -7344,16 +7341,16 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K3" t="s">
         <v>57</v>
@@ -7368,31 +7365,31 @@
         <v>75</v>
       </c>
       <c r="O3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X3">
         <v>1.22</v>
@@ -7410,7 +7407,7 @@
         <v>137</v>
       </c>
       <c r="AC3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -7422,13 +7419,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -7443,31 +7440,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -7475,7 +7472,7 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B4">
         <v>750389379</v>
@@ -7484,7 +7481,7 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -7493,7 +7490,7 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H4" s="5">
         <v>243347</v>
@@ -7502,7 +7499,7 @@
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K4" t="s">
         <v>56</v>
@@ -7517,31 +7514,31 @@
         <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X4">
         <v>2.41</v>
@@ -7559,7 +7556,7 @@
         <v>137</v>
       </c>
       <c r="AC4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -7568,13 +7565,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -7589,31 +7586,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -7621,13 +7618,13 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
@@ -7642,7 +7639,7 @@
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" t="s">
         <v>57</v>
@@ -7657,31 +7654,31 @@
         <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X5">
         <v>1.64</v>
@@ -7699,16 +7696,16 @@
         <v>137</v>
       </c>
       <c r="AC5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -7723,31 +7720,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -7755,7 +7752,7 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B6">
         <v>750937459</v>
@@ -7764,7 +7761,7 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E6" t="s">
         <v>43</v>
@@ -7773,16 +7770,16 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s">
         <v>57</v>
@@ -7797,31 +7794,31 @@
         <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X6">
         <v>2.23</v>
@@ -7839,40 +7836,40 @@
         <v>139</v>
       </c>
       <c r="AC6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -7880,7 +7877,7 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B7">
         <v>750797944</v>
@@ -7889,7 +7886,7 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E7" t="s">
         <v>43</v>
@@ -7898,16 +7895,16 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I7" t="s">
         <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K7" t="s">
         <v>56</v>
@@ -7922,31 +7919,31 @@
         <v>75</v>
       </c>
       <c r="O7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X7">
         <v>1.39</v>
@@ -7964,18 +7961,18 @@
         <v>139</v>
       </c>
       <c r="AC7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B8">
         <v>510000452</v>
@@ -7984,7 +7981,7 @@
         <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E8" t="s">
         <v>43</v>
@@ -7993,7 +7990,7 @@
         <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H8" s="5">
         <v>243438</v>
@@ -8002,7 +7999,7 @@
         <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K8" t="s">
         <v>57</v>
@@ -8017,31 +8014,31 @@
         <v>75</v>
       </c>
       <c r="O8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V8" t="s">
+        <v>197</v>
+      </c>
+      <c r="W8" t="s">
         <v>198</v>
-      </c>
-      <c r="W8" t="s">
-        <v>199</v>
       </c>
       <c r="X8">
         <v>1.06</v>
@@ -8059,24 +8056,24 @@
         <v>137</v>
       </c>
       <c r="AC8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E9" t="s">
         <v>45</v>
@@ -8085,14 +8082,14 @@
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" t="s">
         <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K9" t="s">
         <v>57</v>
@@ -8107,31 +8104,31 @@
         <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V9" t="s">
+        <v>197</v>
+      </c>
+      <c r="W9" t="s">
         <v>198</v>
-      </c>
-      <c r="W9" t="s">
-        <v>199</v>
       </c>
       <c r="X9">
         <v>4.8</v>
@@ -8149,15 +8146,15 @@
         <v>141</v>
       </c>
       <c r="AC9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B10">
         <v>750758437</v>
@@ -8166,7 +8163,7 @@
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E10" t="s">
         <v>43</v>
@@ -8175,7 +8172,7 @@
         <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H10" s="5">
         <v>243438</v>
@@ -8184,7 +8181,7 @@
         <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K10" t="s">
         <v>58</v>
@@ -8199,31 +8196,31 @@
         <v>77</v>
       </c>
       <c r="O10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -8241,15 +8238,15 @@
         <v>137</v>
       </c>
       <c r="AC10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B11">
         <v>750936788</v>
@@ -8258,7 +8255,7 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
@@ -8267,16 +8264,16 @@
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I11" t="s">
         <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K11" t="s">
         <v>57</v>
@@ -8291,31 +8288,31 @@
         <v>76</v>
       </c>
       <c r="O11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X11">
         <v>2.94</v>
@@ -8333,15 +8330,15 @@
         <v>138</v>
       </c>
       <c r="AC11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B12">
         <v>750926540</v>
@@ -8350,7 +8347,7 @@
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E12" t="s">
         <v>43</v>
@@ -8359,7 +8356,7 @@
         <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H12" s="5">
         <v>243347</v>
@@ -8368,7 +8365,7 @@
         <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K12" t="s">
         <v>57</v>
@@ -8383,31 +8380,31 @@
         <v>77</v>
       </c>
       <c r="O12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T12" t="s">
+        <v>187</v>
+      </c>
+      <c r="U12" t="s">
         <v>188</v>
       </c>
-      <c r="U12" t="s">
-        <v>189</v>
-      </c>
       <c r="V12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X12">
         <v>67.83</v>
@@ -8425,81 +8422,81 @@
         <v>139</v>
       </c>
       <c r="AC12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="H13" s="5"/>
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H14" s="5"/>
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H15" s="5"/>
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H16" s="5"/>
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H17" s="5"/>
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -8767,7 +8764,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -8823,7 +8820,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -8876,7 +8873,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -8923,7 +8920,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -8961,7 +8958,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -8978,97 +8975,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -9328,7 +9325,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -9384,7 +9381,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -9437,7 +9434,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -9484,7 +9481,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -9522,7 +9519,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -9539,97 +9536,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -9700,7 +9697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB785B2B-2641-4497-AB87-A3E22C66D845}">
   <dimension ref="A1:BN25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
@@ -9879,7 +9876,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B2">
         <v>480003176</v>
@@ -9888,7 +9885,7 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -9897,7 +9894,7 @@
         <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H2" s="5">
         <v>243438</v>
@@ -9990,7 +9987,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -10002,7 +9999,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -10049,7 +10046,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B3">
         <v>750759293</v>
@@ -10058,7 +10055,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E3" t="s">
         <v>42</v>
@@ -10067,7 +10064,7 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H3" s="5">
         <v>243347</v>
@@ -10160,7 +10157,7 @@
         <v>141</v>
       </c>
       <c r="AL3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -10172,7 +10169,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -10225,7 +10222,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -10272,7 +10269,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -10310,7 +10307,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -10327,97 +10324,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -10669,7 +10666,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B2">
         <v>750935383</v>
@@ -10678,7 +10675,7 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -10687,7 +10684,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H2" s="5">
         <v>243377</v>
@@ -10780,7 +10777,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -10792,7 +10789,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -10839,7 +10836,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B3">
         <v>490001117</v>
@@ -10848,7 +10845,7 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -10857,10 +10854,10 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
@@ -10950,7 +10947,7 @@
         <v>140</v>
       </c>
       <c r="AL3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -10962,7 +10959,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -11009,7 +11006,7 @@
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B4">
         <v>750907973</v>
@@ -11018,7 +11015,7 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E4" t="s">
         <v>44</v>
@@ -11027,10 +11024,10 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I4" t="s">
         <v>48</v>
@@ -11108,19 +11105,19 @@
         <v>12.83</v>
       </c>
       <c r="AH4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AI4">
         <v>2.39</v>
       </c>
       <c r="AJ4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AK4" t="s">
         <v>140</v>
       </c>
       <c r="AL4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AW4" t="s">
         <v>40</v>
@@ -11129,7 +11126,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -11176,7 +11173,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -11214,7 +11211,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -11231,97 +11228,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -11580,7 +11577,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -11636,7 +11633,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -11689,7 +11686,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -11736,7 +11733,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -11774,7 +11771,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -11791,97 +11788,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -12109,13 +12106,13 @@
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -12202,7 +12199,7 @@
         <v>141</v>
       </c>
       <c r="AH2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>38</v>
@@ -12214,7 +12211,7 @@
         <v>46</v>
       </c>
       <c r="AQ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AR2" t="s">
         <v>48</v>
@@ -12261,7 +12258,7 @@
         <v>47</v>
       </c>
       <c r="AQ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AR3" t="s">
         <v>49</v>
@@ -12305,7 +12302,7 @@
         <v>43</v>
       </c>
       <c r="AQ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AR4" t="s">
         <v>50</v>
@@ -12343,7 +12340,7 @@
         <v>44</v>
       </c>
       <c r="AQ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS5" t="s">
         <v>54</v>
@@ -12375,7 +12372,7 @@
         <v>45</v>
       </c>
       <c r="AQ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AS6" t="s">
         <v>55</v>
@@ -12389,97 +12386,97 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -12698,7 +12695,7 @@
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2">
         <v>750968674</v>
@@ -12707,7 +12704,7 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -12716,10 +12713,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I2" t="s">
         <v>48</v>
@@ -12797,7 +12794,7 @@
         <v>137</v>
       </c>
       <c r="AH2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>38</v>
@@ -12809,7 +12806,7 @@
         <v>46</v>
       </c>
       <c r="AQ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AR2" t="s">
         <v>48</v>
@@ -12847,7 +12844,7 @@
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B3">
         <v>750360207</v>
@@ -12856,7 +12853,7 @@
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
@@ -12865,7 +12862,7 @@
         <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H3" s="5">
         <v>243529</v>
@@ -12946,7 +12943,7 @@
         <v>137</v>
       </c>
       <c r="AH3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AN3" t="s">
         <v>39</v>
@@ -12958,7 +12955,7 @@
         <v>47</v>
       </c>
       <c r="AQ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AR3" t="s">
         <v>49</v>
@@ -12996,13 +12993,13 @@
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
@@ -13011,7 +13008,7 @@
         <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
@@ -13089,7 +13086,7 @@
         <v>138</v>
       </c>
       <c r="AH4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN4" t="s">
         <v>40</v>
@@ -13098,7 +13095,7 @@
         <v>43</v>
       </c>
       <c r="AQ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AR4" t="s">
         <v>50</v>
@@ -13133,7 +13130,7 @@
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B5">
         <v>580003359</v>
@@ -13142,7 +13139,7 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E5" t="s">
         <v>42</v>
@@ -13151,10 +13148,10 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I5" t="s">
         <v>50</v>
@@ -13232,13 +13229,13 @@
         <v>137</v>
       </c>
       <c r="AH5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AO5" t="s">
         <v>44</v>
       </c>
       <c r="AQ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS5" t="s">
         <v>54</v>
@@ -13267,7 +13264,7 @@
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B6">
         <v>520000555</v>
@@ -13276,7 +13273,7 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -13285,10 +13282,10 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
@@ -13366,13 +13363,13 @@
         <v>138</v>
       </c>
       <c r="AH6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AO6" t="s">
         <v>45</v>
       </c>
       <c r="AQ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AS6" t="s">
         <v>55</v>
@@ -13386,7 +13383,7 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B7">
         <v>750909091</v>
@@ -13395,7 +13392,7 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -13404,10 +13401,10 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I7" t="s">
         <v>49</v>
@@ -13485,100 +13482,100 @@
         <v>137</v>
       </c>
       <c r="AH7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>208</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -13826,7 +13823,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -13882,7 +13879,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -13935,7 +13932,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -13982,7 +13979,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -14017,7 +14014,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -14031,97 +14028,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
